--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1326.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1326.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.061852020215182</v>
+        <v>0.9826866984367371</v>
       </c>
       <c r="B1">
-        <v>2.551790369229928</v>
+        <v>1.941970586776733</v>
       </c>
       <c r="C1">
-        <v>4.924876130001245</v>
+        <v>8.32557487487793</v>
       </c>
       <c r="D1">
-        <v>2.266815122012157</v>
+        <v>2.869608640670776</v>
       </c>
       <c r="E1">
-        <v>1.22459993340432</v>
+        <v>1.436596035957336</v>
       </c>
     </row>
   </sheetData>
